--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9C615-7F8F-46BB-93D9-496D4A74EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D706E481-B18F-4471-85E2-D1E2CA68CDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="1245" yWindow="585" windowWidth="26685" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
   <si>
     <t/>
   </si>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ScreenList</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>list&lt;ScreenList&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -485,10 +481,6 @@
   </si>
   <si>
     <t>학생 리스트 리플래쉬기능(새로고침)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +635,16 @@
   </si>
   <si>
     <t>퀴즈 요청(문제도 같이 보냄 + 시간(이부분은 없어도됨)), 문제 보낼 학생들</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 하는 순간 유저정보는 서버에 저장되어서 서버에 요청을 보내면 누가 보낸지 알수 있습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷) 한번에 하나의 유저씩 들어옵니다. 
+캡처 사진이 들어오면 유저 객체에 ScreenShotS같은 변수를 만들어서 추가해주면 좋을것 같습니다. 
+한명 사진 들어올때마다 최신화 or 전체 학생 스크린샷 들어오면 보여주기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -888,6 +890,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -897,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,15 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +1033,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,8 +1045,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,1073 +1640,1083 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>63</v>
+        <v>136</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>93</v>
+      <c r="F6" s="34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" t="s">
-        <v>142</v>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="E37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="D42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="E42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="B47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>103</v>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15" t="s">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="15" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="25" t="s">
+      <c r="G52" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D706E481-B18F-4471-85E2-D1E2CA68CDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23CBF0B-BAF3-4204-99BF-10D2F52CA54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="585" windowWidth="26685" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView minimized="1" xWindow="-26940" yWindow="2400" windowWidth="26685" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t/>
   </si>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CP_QResult</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;studentID&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -424,10 +420,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>시간표정보</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -460,10 +452,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SP_LoginFaile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 응답 result=실패(이유)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -501,10 +489,6 @@
   </si>
   <si>
     <t>학생의 퀴즈정답 (학생id, 학생의답)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_LoginFaild</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -645,6 +629,22 @@
     <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷) 한번에 하나의 유저씩 들어옵니다. 
 캡처 사진이 들어오면 유저 객체에 ScreenShotS같은 변수를 만들어서 추가해주면 좋을것 같습니다. 
 한명 사진 들어올때마다 최신화 or 전체 학생 스크린샷 들어오면 보여주기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Qresult</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1036,6 +1036,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,33 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1638,95 +1638,98 @@
     <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="N5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1742,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1765,10 +1768,10 @@
         <v>26</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -1790,10 +1793,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>56</v>
@@ -1811,10 +1814,10 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>56</v>
@@ -1840,10 +1843,10 @@
         <v>72</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>56</v>
@@ -1869,15 +1872,15 @@
         <v>72</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>30</v>
@@ -1894,10 +1897,10 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1911,7 +1914,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1928,7 +1931,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1997,10 +2000,10 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>51</v>
@@ -2013,12 +2016,12 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>57</v>
@@ -2038,7 +2041,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -2049,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>56</v>
@@ -2061,7 +2064,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2086,36 +2089,36 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>47</v>
@@ -2128,21 +2131,21 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>47</v>
@@ -2153,12 +2156,12 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>60</v>
@@ -2178,12 +2181,12 @@
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>59</v>
@@ -2207,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -2228,15 +2231,15 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>29</v>
@@ -2249,7 +2252,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -2350,7 +2353,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2373,12 +2376,12 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>44</v>
@@ -2396,7 +2399,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2419,7 +2422,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2433,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>0</v>
@@ -2444,7 +2447,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2465,7 +2468,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2479,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>47</v>
@@ -2490,7 +2493,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2507,7 +2510,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2579,10 +2582,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>51</v>
@@ -2595,7 +2598,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2616,7 +2619,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
@@ -2641,7 +2644,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
@@ -2666,7 +2669,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2691,7 +2694,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -2716,7 +2719,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23CBF0B-BAF3-4204-99BF-10D2F52CA54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679756D-173A-45C2-BE97-0DF5384786AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26940" yWindow="2400" windowWidth="26685" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$52</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
   <si>
     <t/>
   </si>
@@ -465,10 +465,6 @@
   </si>
   <si>
     <t xml:space="preserve">이게 넘어오면 로그인 성공이라는 뜻, 학생정보 넘겨줌(학생id, 접속 유뮤), 시간표 불러와줌 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 리스트 리플래쉬기능(새로고침)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -645,6 +641,22 @@
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 학생 리스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 종료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_EndOfClass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_EndOfClass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1618,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1641,7 +1653,7 @@
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -1665,10 +1677,10 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="26" t="s">
@@ -1678,16 +1690,16 @@
         <v>101</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
@@ -1698,15 +1710,15 @@
       </c>
       <c r="H5" s="10"/>
       <c r="N5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>53</v>
@@ -1717,16 +1729,16 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -1843,7 +1855,7 @@
         <v>72</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1872,7 +1884,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -1880,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>30</v>
@@ -1935,8 +1947,12 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2003,7 +2019,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>51</v>
@@ -2064,7 +2080,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2089,7 +2105,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -2110,7 +2126,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -2131,7 +2147,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -2156,7 +2172,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -2181,7 +2197,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -2210,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -2231,15 +2247,15 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>29</v>
@@ -2252,7 +2268,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2277,7 +2293,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -2353,7 +2369,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2376,12 +2392,12 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>44</v>
@@ -2399,7 +2415,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2422,7 +2438,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2447,7 +2463,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2468,7 +2484,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2493,7 +2509,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2510,7 +2526,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,10 +2598,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>51</v>
@@ -2619,7 +2635,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
@@ -2644,7 +2660,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
@@ -2669,7 +2685,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2694,7 +2710,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -2719,12 +2735,27 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679756D-173A-45C2-BE97-0DF5384786AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA97B6-A9DF-4C54-A15F-863131C2E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="-26955" yWindow="2085" windowWidth="24600" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t/>
   </si>
@@ -637,10 +637,6 @@
   </si>
   <si>
     <t>SS_LoginFailed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -781,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1630,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1650,8 +1655,8 @@
     <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>137</v>
       </c>
@@ -1664,7 +1669,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1675,7 +1680,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -1694,7 +1699,7 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>130</v>
       </c>
@@ -1709,11 +1714,8 @@
         <v>90</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="N5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>133</v>
       </c>
@@ -1736,12 +1738,12 @@
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -1754,7 +1756,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1785,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1811,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1833,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1858,7 +1863,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1893,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1919,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
       <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1929,7 +1937,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
@@ -1946,12 +1955,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
       <c r="B18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1961,7 +1971,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1972,7 +1982,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2024,8 @@
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
       <c r="B22" s="8" t="s">
         <v>98</v>
       </c>
@@ -2035,7 +2046,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>97</v>
       </c>
@@ -2060,7 +2072,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
@@ -2080,10 +2093,11 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2122,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
       <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
@@ -2129,7 +2144,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>86</v>
       </c>
@@ -2150,7 +2166,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
       <c r="B28" s="8" t="s">
         <v>87</v>
       </c>
@@ -2175,7 +2192,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
       <c r="B29" s="8" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2218,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
       <c r="B30" s="8" t="s">
         <v>89</v>
       </c>
@@ -2229,7 +2248,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
@@ -2250,7 +2270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
         <v>108</v>
       </c>
@@ -2348,6 +2368,7 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
       <c r="B36" s="8" t="s">
         <v>4</v>
       </c>
@@ -2373,6 +2394,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
       <c r="B37" s="8" t="s">
         <v>45</v>
       </c>
@@ -2396,6 +2418,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
       <c r="B38" s="8" t="s">
         <v>115</v>
       </c>
@@ -2419,6 +2442,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
@@ -2442,6 +2466,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
       <c r="B40" s="8" t="s">
         <v>76</v>
       </c>
@@ -2467,6 +2492,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
       <c r="B41" s="8" t="s">
         <v>77</v>
       </c>
@@ -2488,6 +2514,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
       <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
@@ -2597,6 +2624,7 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="37"/>
       <c r="B47" s="8" t="s">
         <v>127</v>
       </c>
@@ -2618,6 +2646,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="37"/>
       <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2667,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="37"/>
       <c r="B49" s="12" t="s">
         <v>69</v>
       </c>
@@ -2663,7 +2693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2718,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
       <c r="B51" s="13" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2744,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="37"/>
       <c r="B52" s="13" t="s">
         <v>17</v>
       </c>
@@ -2738,12 +2770,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="37"/>
       <c r="B53" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2753,7 +2786,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9C615-7F8F-46BB-93D9-496D4A74EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91E5DC-E8A0-48C7-92BE-52D8702A688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="-28020" yWindow="2115" windowWidth="24600" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$52</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t/>
   </si>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ScreenList</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>list&lt;ScreenList&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -380,10 +376,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CP_QResult</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;studentID&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>시간표정보</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -464,10 +452,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SP_LoginFaile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 응답 result=실패(이유)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -484,14 +468,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>학생 리스트 리플래쉬기능(새로고침)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>학생의 질문 텍스트만 보내왔을때</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -509,10 +485,6 @@
   </si>
   <si>
     <t>학생의 퀴즈정답 (학생id, 학생의답)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_LoginFaild</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +615,44 @@
   </si>
   <si>
     <t>퀴즈 요청(문제도 같이 보냄 + 시간(이부분은 없어도됨)), 문제 보낼 학생들</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 하는 순간 유저정보는 서버에 저장되어서 서버에 요청을 보내면 누가 보낸지 알수 있습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷) 한번에 하나의 유저씩 들어옵니다. 
+캡처 사진이 들어오면 유저 객체에 ScreenShotS같은 변수를 만들어서 추가해주면 좋을것 같습니다. 
+한명 사진 들어올때마다 최신화 or 전체 학생 스크린샷 들어오면 보여주기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Qresult</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 학생 리스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 종료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_EndOfClass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_EndOfClass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,8 +807,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -888,6 +904,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -897,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,15 +996,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +1047,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,7 +1086,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1557,1080 +1655,1144 @@
     <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="C33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="D35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="H35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="E37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="D42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="E42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="F42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>103</v>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="37"/>
+      <c r="B49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
+      <c r="B50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
+      <c r="B51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="37"/>
+      <c r="B52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="G52" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="37"/>
+      <c r="B53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA97B6-A9DF-4C54-A15F-863131C2E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91E5DC-E8A0-48C7-92BE-52D8702A688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26955" yWindow="2085" windowWidth="24600" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="-28020" yWindow="2115" windowWidth="24600" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2271,6 +2271,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
       <c r="B32" s="19" t="s">
         <v>108</v>
       </c>
@@ -2292,6 +2293,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>63</v>
       </c>
@@ -2540,6 +2542,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
@@ -2694,6 +2697,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
       <c r="B50" s="12" t="s">
         <v>11</v>
       </c>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuhan\GITHUB\YuhanLH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91E5DC-E8A0-48C7-92BE-52D8702A688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E1483F0A-E885-477B-9807-EC756BD33EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="2115" windowWidth="24600" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
+    <workbookView xWindow="-27060" yWindow="1860" windowWidth="26985" windowHeight="13800" xr2:uid="{7F63FB4D-88F6-4272-BA62-1CE882951EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol (2)" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$53</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'protocol (2)'!$B$10:$D$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +43,20 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C58EC227-3811-4349-A301-24693175EB22}</author>
+    <author>tc={532E740F-167A-4D4A-89BC-5DAA18502B62}</author>
   </authors>
   <commentList>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C58EC227-3811-4349-A301-24693175EB22}">
+    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{C58EC227-3811-4349-A301-24693175EB22}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    정상적인 출석, 지각, 결석 시간 구분
+답글:
+    서버에서 체크해도됨</t>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="1" shapeId="0" xr:uid="{532E740F-167A-4D4A-89BC-5DAA18502B62}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -70,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="170">
   <si>
     <t/>
   </si>
@@ -112,14 +124,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>QuizOX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiz</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">화면캡처		</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -304,10 +308,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>list&lt;ScreenList&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>학생 출석(학생 리스트 최신화)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -336,18 +336,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>requesetType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>schedule</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>second</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>CS_Qustion</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>화면캡처요청</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>질문이 온 학생에게 답변을 보냄</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -460,14 +448,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">studentID, 현재 접속중인지(bool) </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이게 넘어오면 로그인 성공이라는 뜻, 학생정보 넘겨줌(학생id, 접속 유뮤), 시간표 불러와줌 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>학생의 질문 텍스트만 보내왔을때</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -477,14 +457,6 @@
   </si>
   <si>
     <t>학생의 질문 이미지, 텍스트 둘다 같이 보냈을때</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생의 퀴즈정답 (학생id, ox선택)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생의 퀴즈정답 (학생id, 학생의답)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -553,11 +525,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>교수자가 출석요청을 눌렀을때 학생측에 출석 버튼이 활성화 되게 해야한다. 
-(서버측에선 타이머)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ox 퀴즈 실행(교수자가 보낸 질문지를 보여준다.)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -610,49 +577,178 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ox퀴즈 요청(문제도 같이 보냄 + 시간(이부분은 없어도됨)), 문제 보낼 학생들</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀴즈 요청(문제도 같이 보냄 + 시간(이부분은 없어도됨)), 문제 보낼 학생들</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 하는 순간 유저정보는 서버에 저장되어서 서버에 요청을 보내면 누가 보낸지 알수 있습니다</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>요청한 학생들 스크린샷정보들(학생아이디, 스크린샷) 한번에 하나의 유저씩 들어옵니다. 
+    <t>CP_Qresult</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_LoginFailed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 학생 리스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 종료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_EndOfClass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_EndOfClass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면캡처요청(요청하는 학생들)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈 요청(문제도 같이 보냄), 문제 보낼 학생들</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ox퀴즈 요청(문제도 같이 보냄), 문제 보낼 학생들</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용안함 =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석부 요청</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_AtdListRequest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>classTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생의 퀴즈정답 (학번, ox선택)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생의 퀴즈정답 (학번, 학생의답)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 학생들 스크린샷정보들(학번, 스크린샷) 한번에 하나의 유저씩 들어옵니다. 
 캡처 사진이 들어오면 유저 객체에 ScreenShotS같은 변수를 만들어서 추가해주면 좋을것 같습니다. 
 한명 사진 들어올때마다 최신화 or 전체 학생 스크린샷 들어오면 보여주기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CP_Qresult</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP_LoginFailed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_LoginFailed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속한 학생 리스트</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 종료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP_EndOfClass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_EndOfClass</t>
+    <t>SS_QuizOX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_Quiz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 입장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_EnterRoom</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수자가 수업시간에 들어오면 학생에게 보내주는 패킷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수자가 출석요청을 눌렀을때 학생측에 출석 버튼이 활성화 되게 해야한다. 
+(서버측에선 누른시간을 기록해서 출석, 지각, 결석을 기록한다.)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 인정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_AtdResult</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린샷 요청</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_ScreenRequest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업이 종료되면 넘어오는 패킷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 인정 값 반환</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이게 넘어오면 로그인 성공이라는 뜻, 학생정보 넘겨줌(학번, 학생이름), 시간표 불러와줌 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID, studentName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID, studentName, lectureCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Lecture&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_code, professor_id, lecture_name, credit, weekday, start_time, end_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenList&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;student&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;atdList&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석부</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_AtdList</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>atdList</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -752,15 +848,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -776,8 +863,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,7 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1026,21 +1125,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1053,40 +1143,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,190 +1196,7 @@
     <cellStyle name="계산" xfId="1" builtinId="22"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1300,31 +1219,6 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="정 재령" id="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" userId="d9da2d300513f00a" providerId="Windows Live"/>
 </personList>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" headers="0" connectionId="2" xr16:uid="{2A5FB257-D780-4CAA-9CF3-EA6F636BAAB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="5" unboundColumnsRight="1">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50828E1F-8432-4B11-BE28-DCF6073A9702}" name="protocol__2" displayName="protocol__2" ref="B10:E52" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="계산" dataCellStyle="계산">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E362C28C-DD42-46DA-AA2C-2538846243BE}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3" dataCellStyle="계산"/>
-    <tableColumn id="2" xr3:uid="{281994AB-19F6-4213-9A84-14DB5A81AEBA}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2" dataCellStyle="계산"/>
-    <tableColumn id="3" xr3:uid="{884E015A-F66E-471E-B63F-690AFCB8A52B}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1" dataCellStyle="계산"/>
-    <tableColumn id="4" xr3:uid="{D30566F5-0CDC-4C5A-BCEF-CD3F9EACB72A}" uniqueName="4" name="열1" queryTableFieldId="4" dataDxfId="0" dataCellStyle="계산"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,10 +1518,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E50" dT="2021-10-05T20:36:56.58" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{C58EC227-3811-4349-A301-24693175EB22}">
+  <threadedComment ref="E51" dT="2021-10-05T20:36:56.58" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{C58EC227-3811-4349-A301-24693175EB22}">
     <text>정상적인 출석, 지각, 결석 시간 구분</text>
   </threadedComment>
-  <threadedComment ref="E50" dT="2021-10-19T04:38:34.77" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{EA716AB3-1AA7-4801-A5E9-FF7C8B2348CE}" parentId="{C58EC227-3811-4349-A301-24693175EB22}">
+  <threadedComment ref="E51" dT="2021-10-19T04:38:34.77" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{EA716AB3-1AA7-4801-A5E9-FF7C8B2348CE}" parentId="{C58EC227-3811-4349-A301-24693175EB22}">
+    <text>서버에서 체크해도됨</text>
+  </threadedComment>
+  <threadedComment ref="E56" dT="2021-10-05T20:36:56.58" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{532E740F-167A-4D4A-89BC-5DAA18502B62}">
+    <text>정상적인 출석, 지각, 결석 시간 구분</text>
+  </threadedComment>
+  <threadedComment ref="E56" dT="2021-10-19T04:38:34.77" personId="{3D0B2970-E8D1-46DE-851F-EA4269DB0DB7}" id="{1098F0E3-781E-4C96-82F0-26AF02C6D3B2}" parentId="{532E740F-167A-4D4A-89BC-5DAA18502B62}">
     <text>서버에서 체크해도됨</text>
   </threadedComment>
 </ThreadedComments>
@@ -1635,15 +1535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD18F077-74E5-4E23-B0EE-B8DD7D2BBFBA}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
@@ -1655,95 +1555,103 @@
     <col min="10" max="10" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30" t="s">
-        <v>62</v>
+        <v>120</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -1756,176 +1664,162 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C15" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1934,16 +1828,15 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1952,16 +1845,15 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1969,20 +1861,28 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="J18" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J19" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
@@ -1997,94 +1897,91 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
@@ -2093,150 +1990,144 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="J25" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>0</v>
@@ -2245,193 +2136,185 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="J33" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="8" t="s">
+      <c r="D36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>0</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
       <c r="B38" s="8" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
@@ -2440,22 +2323,21 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
       <c r="B39" s="8" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
@@ -2464,335 +2346,398 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>118</v>
+        <v>70</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
       <c r="B42" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="G44" s="8" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="14" t="s">
+      <c r="J44" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="37"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="37"/>
+      <c r="B46" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="D47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
       <c r="B48" s="8" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="12" t="s">
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="13" t="s">
+      <c r="C51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+      <c r="E51" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>72</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="D53" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2802,9 +2747,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
